--- a/build/classes/c5/DATASET.xlsx
+++ b/build/classes/c5/DATASET.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GEJALA" sheetId="1" r:id="rId1"/>
@@ -722,10 +722,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,7 +750,7 @@
     <xdr:from>
       <xdr:col>92</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="65" cy="172227"/>
@@ -768,6 +768,61 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="56083200" y="1905000"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47CA9CB0-9B8C-4AFB-A239-32713315FEC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57035700" y="1905000"/>
           <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1103,7 +1158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
@@ -1119,10 +1174,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15"/>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1131,7 +1186,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1145,7 +1200,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1159,7 +1214,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1173,7 +1228,7 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1187,7 +1242,7 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1201,7 +1256,7 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1215,7 +1270,7 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1229,7 +1284,7 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1243,7 +1298,7 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1257,7 +1312,7 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>167</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1271,7 +1326,7 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>167</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1285,7 +1340,7 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>167</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1299,7 +1354,7 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>167</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1313,7 +1368,7 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>167</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1327,7 +1382,7 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>167</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -1341,7 +1396,7 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>167</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -1355,7 +1410,7 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>167</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1369,7 +1424,7 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>167</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1383,7 +1438,7 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>167</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1397,7 +1452,7 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>167</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1411,7 +1466,7 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>167</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1425,7 +1480,7 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>167</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1439,7 +1494,7 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>167</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1453,7 +1508,7 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>167</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1467,7 +1522,7 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>167</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1481,7 +1536,7 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>168</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1495,7 +1550,7 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>168</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1509,7 +1564,7 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>168</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1523,7 +1578,7 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>168</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1537,7 +1592,7 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>168</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1551,7 +1606,7 @@
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>168</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1565,7 +1620,7 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>168</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1579,7 +1634,7 @@
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>168</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1593,7 +1648,7 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>168</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1607,7 +1662,7 @@
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>168</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1621,7 +1676,7 @@
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>168</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -1635,7 +1690,7 @@
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -1649,7 +1704,7 @@
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1663,7 +1718,7 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -1677,7 +1732,7 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -1691,7 +1746,7 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -1705,7 +1760,7 @@
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -1719,7 +1774,7 @@
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -1733,7 +1788,7 @@
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -1747,7 +1802,7 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -1761,7 +1816,7 @@
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -1775,7 +1830,7 @@
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -1789,7 +1844,7 @@
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -1803,7 +1858,7 @@
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -1817,7 +1872,7 @@
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -1831,7 +1886,7 @@
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>170</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -1845,7 +1900,7 @@
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>170</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -1859,7 +1914,7 @@
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>170</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -1873,7 +1928,7 @@
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>170</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -1887,7 +1942,7 @@
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="15" t="s">
+      <c r="B56" s="14" t="s">
         <v>171</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -1901,7 +1956,7 @@
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="14" t="s">
         <v>171</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -1915,7 +1970,7 @@
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>171</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -1929,7 +1984,7 @@
       <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="B59" s="14" t="s">
         <v>171</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -1943,7 +1998,7 @@
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>171</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -1957,7 +2012,7 @@
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="14" t="s">
         <v>171</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -1971,7 +2026,7 @@
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="14" t="s">
         <v>171</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -1985,7 +2040,7 @@
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="14" t="s">
         <v>171</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -1999,7 +2054,7 @@
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>171</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2013,7 +2068,7 @@
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>171</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -2027,7 +2082,7 @@
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B66" s="14" t="s">
         <v>172</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -2041,7 +2096,7 @@
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="14" t="s">
         <v>172</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -2055,7 +2110,7 @@
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="14" t="s">
         <v>172</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -2069,7 +2124,7 @@
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="14" t="s">
         <v>172</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -2083,7 +2138,7 @@
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="14" t="s">
         <v>172</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -2097,7 +2152,7 @@
       <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="14" t="s">
         <v>172</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -2111,7 +2166,7 @@
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="14" t="s">
         <v>172</v>
       </c>
       <c r="C72" s="2" t="s">
@@ -2125,7 +2180,7 @@
       <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="B73" s="14" t="s">
         <v>172</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -2139,7 +2194,7 @@
       <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="14" t="s">
         <v>172</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -2153,7 +2208,7 @@
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B75" s="14" t="s">
         <v>172</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -2167,7 +2222,7 @@
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="14" t="s">
         <v>172</v>
       </c>
       <c r="C76" s="2" t="s">
@@ -2181,7 +2236,7 @@
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="14" t="s">
         <v>172</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -2195,7 +2250,7 @@
       <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B78" s="14" t="s">
         <v>172</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -2209,7 +2264,7 @@
       <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B79" s="14" t="s">
         <v>172</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -2223,7 +2278,7 @@
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="14" t="s">
         <v>172</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -2237,7 +2292,7 @@
       <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="14" t="s">
         <v>172</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -2251,7 +2306,7 @@
       <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="15" t="s">
+      <c r="B82" s="14" t="s">
         <v>173</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -2265,7 +2320,7 @@
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="14" t="s">
         <v>173</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -2279,7 +2334,7 @@
       <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B84" s="14" t="s">
         <v>174</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -2293,7 +2348,7 @@
       <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="15" t="s">
+      <c r="B85" s="14" t="s">
         <v>174</v>
       </c>
       <c r="C85" s="2" t="s">
@@ -2307,7 +2362,7 @@
       <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="B86" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -2321,7 +2376,7 @@
       <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="B87" s="14" t="s">
         <v>175</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -2335,7 +2390,7 @@
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B88" s="14" t="s">
         <v>176</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -2349,7 +2404,7 @@
       <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="15" t="s">
+      <c r="B89" s="14" t="s">
         <v>176</v>
       </c>
       <c r="C89" s="2" t="s">
@@ -2371,8 +2426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DG531"/>
   <sheetViews>
-    <sheetView topLeftCell="CJ83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CP7" sqref="CP7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
